--- a/config/Level【关卡配置表】.xlsx
+++ b/config/Level【关卡配置表】.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>导出/server</t>
   </si>
@@ -37,12 +37,18 @@
     <t>列数</t>
   </si>
   <si>
+    <t>场景资源</t>
+  </si>
+  <si>
     <t>uint</t>
   </si>
   <si>
     <t>sarray</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -55,7 +61,13 @@
     <t>ColCount</t>
   </si>
   <si>
+    <t>SceneObj</t>
+  </si>
+  <si>
     <t>_:_:#:#:#:_:_:_:_:_:#:.:#:_:_:_:_:_:#:-:#:#:#:#:#:#:#:$:-:$:.:#:#:.:-:$:@:#:#:#:#:#:#:#:$:#:_:_:_:_:_:#:.:#:_:_:_:_:_:#:#:#:_:_</t>
+  </si>
+  <si>
+    <t>Level1</t>
   </si>
   <si>
     <t>#:#:#:#:_:_:#:-:.:#:_:_:#:-:-:#:#:#:#:*:@:-:-:#:#:-:-:$:-:#:#:-:-:#:#:#:#:#:#:#:_:_</t>
@@ -1076,18 +1088,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="112.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,8 +1115,11 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1120,8 +1135,11 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1137,42 +1155,51 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -1188,8 +1215,11 @@
       <c r="E6">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1197,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1205,8 +1235,11 @@
       <c r="E7">
         <v>6</v>
       </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1214,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1222,8 +1255,11 @@
       <c r="E8">
         <v>6</v>
       </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1231,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1239,8 +1275,11 @@
       <c r="E9">
         <v>8</v>
       </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1248,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1256,8 +1295,11 @@
       <c r="E10">
         <v>12</v>
       </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1265,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -1273,8 +1315,11 @@
       <c r="E11">
         <v>6</v>
       </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1282,12 +1327,15 @@
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
         <v>9</v>
       </c>
     </row>

--- a/config/Level【关卡配置表】.xlsx
+++ b/config/Level【关卡配置表】.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>导出/server</t>
   </si>
@@ -40,6 +40,9 @@
     <t>场景资源</t>
   </si>
   <si>
+    <t>UI资源</t>
+  </si>
+  <si>
     <t>uint</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -62,6 +68,12 @@
   </si>
   <si>
     <t>SceneObj</t>
+  </si>
+  <si>
+    <t>UIID</t>
+  </si>
+  <si>
+    <t>lobby</t>
   </si>
   <si>
     <t>_:_:#:#:#:_:_:_:_:_:#:.:#:_:_:_:_:_:#:-:#:#:#:#:#:#:#:$:-:$:.:#:#:.:-:$:@:#:#:#:#:#:#:#:$:#:_:_:_:_:_:#:.:#:_:_:_:_:_:#:#:#:_:_</t>
@@ -748,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -764,6 +776,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1088,18 +1106,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="112.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1136,11 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1138,8 +1159,11 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1158,96 +1182,106 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1263,79 +1297,99 @@
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
       <c r="E11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>9</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>9</v>
       </c>
     </row>

--- a/config/Level【关卡配置表】.xlsx
+++ b/config/Level【关卡配置表】.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>导出/server</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>#:#:#:#:_:_:#:-:.:#:_:_:#:-:-:#:#:#:#:*:@:-:-:#:#:-:-:$:-:#:#:-:-:#:#:#:#:#:#:#:_:_</t>
+  </si>
+  <si>
+    <t>Level2</t>
   </si>
   <si>
     <t>#:#:#:#:#:#:#:-:-:-:-:#:#:-:#:@:-:#:#:-:$:*:-:#:#:-:.:*:-:#:#:-:-:-:-:#:#:#:#:#:#:#</t>
@@ -1109,7 +1112,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1289,8 +1292,8 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8">
-        <v>6</v>
+      <c r="F8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1301,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1321,7 +1324,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1341,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1361,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -1381,7 +1384,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>8</v>

--- a/config/Level【关卡配置表】.xlsx
+++ b/config/Level【关卡配置表】.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>导出/server</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>#:#:#:#:#:#:#:-:-:-:-:#:#:-:#:@:-:#:#:-:$:*:-:#:#:-:.:*:-:#:#:-:-:-:-:#:#:#:#:#:#:#</t>
+  </si>
+  <si>
+    <t>Level3</t>
   </si>
   <si>
     <t>_:#:#:#:#:#:#:#:_:#:-:-:-:-:-:#:_:#:-:.:$:.:-:#:#:#:-:$:@:$:-:#:#:-:-:.:$:.:-:#:#:-:-:-:-:-:-:#:#:#:#:#:#:#:#:#</t>
@@ -1112,7 +1115,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1312,8 +1315,8 @@
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9">
-        <v>6</v>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1324,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1344,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1364,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -1384,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>8</v>

--- a/config/Level【关卡配置表】.xlsx
+++ b/config/Level【关卡配置表】.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>导出/server</t>
   </si>
@@ -97,13 +97,25 @@
     <t>_:#:#:#:#:#:#:#:_:#:-:-:-:-:-:#:_:#:-:.:$:.:-:#:#:#:-:$:@:$:-:#:#:-:-:.:$:.:-:#:#:-:-:-:-:-:-:#:#:#:#:#:#:#:#:#</t>
   </si>
   <si>
-    <t>#:#:#:#:#:#:_:#:#:#:#:#:#:-:-:-:-:#:#:#:-:-:-:#:#:-:$:$:-:-:-:-:-:#:@:#:#:-:$:-:#:.:.:.:-:-:-:#:#:-:-:-:#:#:#:#:#:#:#:#:#:#:#:#:#:_:_:_:_:_:_:_</t>
+    <t>Level4</t>
+  </si>
+  <si>
+    <t>#:#:#:#:#:#:#:#:-:-:-:-:-:#:#:-:#:-:#:-:#:#:.:-:$:*:@:#:#:-:-:-:#:#:#:#:#:#:#:#:_:_</t>
+  </si>
+  <si>
+    <t>Level5</t>
   </si>
   <si>
     <t>#:#:#:#:#:_:#:.:-:-:#:#:#:@:$:$:-:#:#:#:-:-:-:#:_:#:#:-:-:#:_:_:#:#:.:#:_:_:_:#:#:#</t>
   </si>
   <si>
+    <t>Level6</t>
+  </si>
+  <si>
     <t>_:_:#:#:#:#:#:#:_:_:_:#:-:-:-:-:#:_:_:_:#:-:#:#:@:#:#:#:#:#:-:#:-:$:-:#:#:-:.:.:#:-:$:-:#:#:-:-:-:-:-:-:-:#:#:-:-:#:#:#:#:#:#:#:#:#:#:_:_:_:_:_</t>
+  </si>
+  <si>
+    <t>Level7</t>
   </si>
 </sst>
 </file>
@@ -766,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,6 +803,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1115,7 +1130,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1335,8 +1350,8 @@
       <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>8</v>
+      <c r="F10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1346,17 +1361,17 @@
       <c r="B11" s="8">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1367,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -1375,8 +1390,8 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>6</v>
+      <c r="F12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1387,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1395,8 +1410,8 @@
       <c r="E13">
         <v>9</v>
       </c>
-      <c r="F13">
-        <v>9</v>
+      <c r="F13" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/config/Level【关卡配置表】.xlsx
+++ b/config/Level【关卡配置表】.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>导出/server</t>
   </si>
@@ -112,10 +112,13 @@
     <t>Level6</t>
   </si>
   <si>
+    <t>Level7</t>
+  </si>
+  <si>
     <t>_:_:#:#:#:#:#:#:_:_:_:#:-:-:-:-:#:_:_:_:#:-:#:#:@:#:#:#:#:#:-:#:-:$:-:#:#:-:.:.:#:-:$:-:#:#:-:-:-:-:-:-:-:#:#:-:-:#:#:#:#:#:#:#:#:#:#:_:_:_:_:_</t>
   </si>
   <si>
-    <t>Level7</t>
+    <t>Level8</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1402,16 +1405,36 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="D13">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
-        <v>33</v>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/config/Level【关卡配置表】.xlsx
+++ b/config/Level【关卡配置表】.xlsx
@@ -73,7 +73,7 @@
     <t>UIID</t>
   </si>
   <si>
-    <t>lobby</t>
+    <t>Lobby</t>
   </si>
   <si>
     <t>_:_:#:#:#:_:_:_:_:_:#:.:#:_:_:_:_:_:#:-:#:#:#:#:#:#:#:$:-:$:.:#:#:.:-:$:@:#:#:#:#:#:#:#:$:#:_:_:_:_:_:#:.:#:_:_:_:_:_:#:#:#:_:_</t>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
